--- a/biology/Microbiologie/Sphingomonas/Sphingomonas.xlsx
+++ b/biology/Microbiologie/Sphingomonas/Sphingomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphingomonas est un genre de protéobactéries de la famille des Sphingomonadaceae .
-Ce genre regroupe une quinzaine d'espèces. L'espèce type est Sphingomonas aquatica[1]. 
+Ce genre regroupe une quinzaine d'espèces. L'espèce type est Sphingomonas aquatica. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 août 2014) :
 Sphingomonas abaci
 Sphingomonas adhaesiva
 Sphingomonas aerolata
@@ -543,7 +557,7 @@
 Sphingomonas wittichii
 Sphingomonas yabuuchiae
 Sphingomonas yunnanensis
-Selon World Register of Marine Species                               (15 août 2014)[3] :
+Selon World Register of Marine Species                               (15 août 2014) :
 Sphingomonas aestuarii Roh, Kim, Nam, Chang, Kim, Oh &amp; Bae, 2009
 Sphingomonas japonica Romanenko, Tanaka, Frolova &amp; Mikhailov, 2009
 Sphingomonas molluscorum Romanenko, Uchino, Frolova, Tanaka, Kalinovskaya, Latyshev &amp; Mikhailov, 2007</t>
@@ -574,9 +588,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 août 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 août 2014) :
 Sphingomonas abaci
 Sphingomonas adhaesiva
 non-classé Sphingomonas adhaesiva NBRC 15099
